--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1458"/>
+  <dimension ref="A1:G1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35997,10 +35997,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36030,10 +36028,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36063,10 +36059,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36092,10 +36086,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36125,10 +36117,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36158,10 +36148,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36187,10 +36175,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36220,10 +36206,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36249,10 +36233,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36282,10 +36264,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36311,10 +36291,8 @@
         </is>
       </c>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36336,10 +36314,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36361,10 +36337,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36386,10 +36360,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36411,10 +36383,8 @@
       </c>
       <c r="E1382" t="inlineStr"/>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36436,273 +36406,231 @@
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>-0.017M</t>
+        </is>
+      </c>
       <c r="E1384" t="inlineStr"/>
       <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-0.616M</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.252M</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>0.189M</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>4.190%</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr">
-        <is>
-          <t>19K</t>
-        </is>
-      </c>
+      <c r="D1391" t="inlineStr"/>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+          <t>$-0.81B</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1392" t="inlineStr">
@@ -36712,32 +36640,20 @@
       </c>
     </row>
     <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
+      <c r="A1393" t="inlineStr"/>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36745,28 +36661,20 @@
       </c>
     </row>
     <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
+      <c r="A1394" t="inlineStr"/>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36776,134 +36684,118 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMMAR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr"/>
       <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1396" t="inlineStr"/>
       <c r="E1396" t="inlineStr"/>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
+      <c r="F1397" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr">
-        <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
-      <c r="F1399" t="inlineStr"/>
+      <c r="D1399" t="inlineStr"/>
+      <c r="E1399" t="inlineStr"/>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>1850.0K</t>
+        </is>
+      </c>
       <c r="G1399" t="inlineStr">
         <is>
           <t>3</t>
@@ -36913,56 +36805,76 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
       <c r="D1400" t="inlineStr"/>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="D1402" t="inlineStr"/>
+      <c r="E1402" t="inlineStr"/>
+      <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr">
         <is>
           <t>3</t>
@@ -36972,30 +36884,18 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="D1403" t="inlineStr"/>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr">
         <is>
           <t>3</t>
@@ -37005,55 +36905,39 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr">
         <is>
           <t>3</t>
@@ -37063,26 +36947,18 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
+      <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr">
         <is>
           <t>3</t>
@@ -37092,26 +36968,22 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr">
         <is>
           <t>3</t>
@@ -37121,26 +36993,18 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr">
-        <is>
-          <t>60.9</t>
-        </is>
-      </c>
+      <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
+      <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr">
         <is>
           <t>3</t>
@@ -37150,45 +37014,29 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr"/>
       <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1409" t="inlineStr"/>
       <c r="E1409" t="inlineStr"/>
       <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1409" t="inlineStr"/>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr">
-        <is>
-          <t>4.065%</t>
-        </is>
-      </c>
+      <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr"/>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr">
@@ -37205,15 +37053,11 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr">
-        <is>
-          <t>3.784%</t>
-        </is>
-      </c>
+      <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr"/>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr">
@@ -37225,7 +37069,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
+          <t>Sunday May 11 2025</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -37235,1100 +37079,6 @@
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
     </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr">
-        <is>
-          <t>Balance of TradeMAR</t>
-        </is>
-      </c>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr">
-        <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr">
-        <is>
-          <t>$-137.1B</t>
-        </is>
-      </c>
-      <c r="G1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr">
-        <is>
-          <t>ExportsMAR</t>
-        </is>
-      </c>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr">
-        <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
-      <c r="G1414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr">
-        <is>
-          <t>ImportsMAR</t>
-        </is>
-      </c>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
-      <c r="G1415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/03</t>
-        </is>
-      </c>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>09:10 AM</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="G1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr">
-        <is>
-          <t>4.435%</t>
-        </is>
-      </c>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
-        </is>
-      </c>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr"/>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1447" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1459"/>
+  <dimension ref="A1:G1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35997,10 +35997,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36030,10 +36028,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36063,10 +36059,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36092,10 +36086,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36125,10 +36117,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36158,10 +36148,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36187,10 +36175,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36220,10 +36206,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36249,10 +36233,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36282,10 +36264,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36311,10 +36291,8 @@
         </is>
       </c>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36336,10 +36314,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36361,10 +36337,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36386,10 +36360,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36411,10 +36383,8 @@
       </c>
       <c r="E1382" t="inlineStr"/>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36436,151 +36406,129 @@
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
+        </is>
+      </c>
       <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>-4.2%</t>
+        </is>
+      </c>
       <c r="E1384" t="inlineStr"/>
       <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>146.6</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
           <t>2</t>
@@ -36590,26 +36538,22 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
           <t>2</t>
@@ -36619,30 +36563,22 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr">
         <is>
           <t>3</t>
@@ -36652,26 +36588,22 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
           <t>3</t>
@@ -36681,30 +36613,22 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>-0.017M</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36714,30 +36638,22 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36747,26 +36663,22 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36776,59 +36688,47 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>0.252M</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -36838,18 +36738,18 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>4.190%</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -36863,106 +36763,118 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr">
-        <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+      <c r="D1399" t="inlineStr"/>
+      <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeMAR</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>$-0.81B</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+      <c r="A1401" t="inlineStr"/>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMAPR</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
+      <c r="A1402" t="inlineStr"/>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
+      <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr">
         <is>
           <t>3</t>
@@ -36972,144 +36884,116 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr"/>
       <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="G1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1403" t="inlineStr"/>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="inlineStr"/>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+      <c r="D1404" t="inlineStr"/>
       <c r="E1404" t="inlineStr"/>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr"/>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1407" t="inlineStr"/>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>1850.0K</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
@@ -37121,24 +37005,20 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr">
-        <is>
-          <t>60.9</t>
-        </is>
-      </c>
+      <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="inlineStr"/>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
@@ -37150,22 +37030,30 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -37175,20 +37063,16 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr">
-        <is>
-          <t>4.065%</t>
-        </is>
-      </c>
+      <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr"/>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr">
@@ -37200,20 +37084,16 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr">
-        <is>
-          <t>3.784%</t>
-        </is>
-      </c>
+      <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr"/>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr">
@@ -37225,120 +37105,104 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr"/>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr">
-        <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
+      <c r="D1413" t="inlineStr"/>
       <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr">
-        <is>
-          <t>$-137.1B</t>
-        </is>
-      </c>
+      <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr">
-        <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
+      <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr"/>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>$401.1B</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr"/>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr">
@@ -37350,31 +37214,15 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr"/>
       <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="G1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr"/>
     </row>
     <row r="1418">
       <c r="A1418" t="inlineStr">
@@ -37384,15 +37232,11 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr">
-        <is>
-          <t>4.435%</t>
-        </is>
-      </c>
+      <c r="D1418" t="inlineStr"/>
       <c r="E1418" t="inlineStr"/>
       <c r="F1418" t="inlineStr"/>
       <c r="G1418" t="inlineStr">
@@ -37404,955 +37248,36 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
+      <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr"/>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
       <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr"/>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
-        </is>
-      </c>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
+      <c r="G1420" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1459"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36001,10 +36001,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36038,10 +36036,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36075,10 +36071,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36108,10 +36102,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36145,10 +36137,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36182,10 +36172,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36215,10 +36203,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36252,10 +36238,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36285,10 +36269,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36322,10 +36304,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36351,10 +36331,8 @@
         </is>
       </c>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36376,10 +36354,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36401,10 +36377,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36426,10 +36400,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36451,10 +36423,8 @@
       </c>
       <c r="E1382" t="inlineStr"/>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36476,16 +36446,14 @@
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
+          <t>Wednesday May 07 2025</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -36498,253 +36466,197 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-4.2%</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36754,30 +36666,22 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>0.682M</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36787,26 +36691,22 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36816,59 +36716,47 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -36878,18 +36766,18 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>0.252M</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -36903,18 +36791,18 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
@@ -36926,23 +36814,23 @@
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr">
         <is>
@@ -36953,54 +36841,74 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>$-0.81B</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr">
@@ -37010,32 +36918,20 @@
       </c>
     </row>
     <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
+      <c r="A1403" t="inlineStr"/>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr">
         <is>
           <t>3</t>
@@ -37043,173 +36939,149 @@
       </c>
     </row>
     <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1404" t="inlineStr"/>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1404" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
       <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>246.0K</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>1916K</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -37219,22 +37091,26 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>231.5K</t>
+        </is>
+      </c>
       <c r="G1410" t="inlineStr">
         <is>
           <t>3</t>
@@ -37244,22 +37120,30 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>3.784%</t>
-        </is>
-      </c>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1411" t="inlineStr">
         <is>
           <t>3</t>
@@ -37269,124 +37153,108 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr"/>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr"/>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr">
-        <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
+      <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1415" t="inlineStr"/>
       <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="D1416" t="inlineStr"/>
       <c r="E1416" t="inlineStr"/>
       <c r="F1416" t="inlineStr"/>
       <c r="G1416" t="inlineStr">
@@ -37398,26 +37266,18 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="D1417" t="inlineStr"/>
       <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr">
         <is>
           <t>3</t>
@@ -37432,13 +37292,13 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr"/>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37457,99 +37317,87 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
+      <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr"/>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
       <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr"/>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1420" t="inlineStr"/>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr"/>
       <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr">
@@ -37561,850 +37409,15 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
       <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1461"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36001,10 +36001,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36038,10 +36036,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36075,10 +36071,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36108,10 +36102,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36145,10 +36137,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36182,10 +36172,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36215,10 +36203,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36252,10 +36238,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36285,10 +36269,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36322,10 +36304,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36351,10 +36331,8 @@
       </c>
       <c r="E1378" t="inlineStr"/>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36380,10 +36358,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36409,10 +36385,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36438,10 +36412,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36463,10 +36435,8 @@
       </c>
       <c r="E1382" t="inlineStr"/>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36488,16 +36458,14 @@
         </is>
       </c>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
+          <t>Wednesday May 07 2025</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -36510,253 +36478,197 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-4.2%</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36766,30 +36678,22 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>0.682M</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36799,26 +36703,22 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36828,59 +36728,47 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -36890,18 +36778,18 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>0.252M</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -36915,18 +36803,18 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
@@ -36938,23 +36826,23 @@
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr">
         <is>
@@ -36965,54 +36853,74 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>$-0.81B</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr">
@@ -37022,32 +36930,20 @@
       </c>
     </row>
     <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
+      <c r="A1403" t="inlineStr"/>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr">
         <is>
           <t>3</t>
@@ -37055,173 +36951,149 @@
       </c>
     </row>
     <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1404" t="inlineStr"/>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1404" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
       <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>246.0K</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>1916K</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -37231,22 +37103,26 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>231.5K</t>
+        </is>
+      </c>
       <c r="G1410" t="inlineStr">
         <is>
           <t>3</t>
@@ -37256,22 +37132,30 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>3.784%</t>
-        </is>
-      </c>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1411" t="inlineStr">
         <is>
           <t>3</t>
@@ -37281,122 +37165,118 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr"/>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr"/>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr"/>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>$278.5B</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr"/>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>$401.1B</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr"/>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37410,26 +37290,22 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr"/>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr">
         <is>
           <t>3</t>
@@ -37444,13 +37320,13 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr"/>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37469,99 +37345,87 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
+      <c r="D1419" t="inlineStr"/>
       <c r="E1419" t="inlineStr"/>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
       <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr"/>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1420" t="inlineStr"/>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr"/>
       <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr">
@@ -37573,924 +37437,15 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
       <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1461"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36001,10 +36001,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36038,10 +36036,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36075,10 +36071,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36108,10 +36102,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36145,10 +36137,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36182,10 +36172,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36215,10 +36203,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36252,10 +36238,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36285,10 +36269,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36322,10 +36304,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36351,10 +36331,8 @@
       </c>
       <c r="E1378" t="inlineStr"/>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36380,10 +36358,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36409,10 +36385,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36438,10 +36412,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36471,10 +36443,8 @@
         </is>
       </c>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36496,16 +36466,14 @@
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
+          <t>Wednesday May 07 2025</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -36518,253 +36486,197 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-4.2%</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36774,30 +36686,22 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>0.682M</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36807,26 +36711,22 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36836,59 +36736,47 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -36898,18 +36786,18 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>0.252M</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -36923,18 +36811,18 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
@@ -36946,23 +36834,23 @@
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr">
         <is>
@@ -36973,54 +36861,74 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>$-0.81B</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr">
@@ -37030,32 +36938,20 @@
       </c>
     </row>
     <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
+      <c r="A1403" t="inlineStr"/>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr">
         <is>
           <t>3</t>
@@ -37063,173 +36959,149 @@
       </c>
     </row>
     <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1404" t="inlineStr"/>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1404" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
       <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>246.0K</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>1916K</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -37239,22 +37111,26 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>231.5K</t>
+        </is>
+      </c>
       <c r="G1410" t="inlineStr">
         <is>
           <t>3</t>
@@ -37264,22 +37140,30 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>3.784%</t>
-        </is>
-      </c>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1411" t="inlineStr">
         <is>
           <t>3</t>
@@ -37289,122 +37173,118 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr"/>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr"/>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr"/>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>$278.5B</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr"/>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>$401.1B</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr"/>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37418,26 +37298,22 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr"/>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr">
         <is>
           <t>3</t>
@@ -37452,13 +37328,13 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr"/>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37477,99 +37353,91 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr"/>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr"/>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
       <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr"/>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1420" t="inlineStr"/>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr"/>
       <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr">
@@ -37581,924 +37449,15 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
       <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1461"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36001,10 +36001,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -36038,10 +36036,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -36075,10 +36071,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -36108,10 +36102,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -36145,10 +36137,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -36182,10 +36172,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1373" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1373" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -36215,10 +36203,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1375">
@@ -36252,10 +36238,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -36285,10 +36269,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -36322,10 +36304,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -36351,10 +36331,8 @@
       </c>
       <c r="E1378" t="inlineStr"/>
       <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -36380,10 +36358,8 @@
       </c>
       <c r="E1379" t="inlineStr"/>
       <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -36409,10 +36385,8 @@
       </c>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1381">
@@ -36438,10 +36412,8 @@
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -36471,10 +36443,8 @@
         </is>
       </c>
       <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -36500,16 +36470,14 @@
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
+          <t>Wednesday May 07 2025</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -36522,253 +36490,197 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-4.2%</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1388" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1389" t="inlineStr"/>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36778,30 +36690,22 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1393" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>0.682M</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
       <c r="G1393" t="inlineStr">
         <is>
           <t>3</t>
@@ -36811,26 +36715,22 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr">
         <is>
           <t>3</t>
@@ -36840,59 +36740,47 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1395" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.616M</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr">
         <is>
           <t>3</t>
@@ -36902,18 +36790,18 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr"/>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>0.252M</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -36927,18 +36815,18 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.189M</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr"/>
@@ -36950,23 +36838,23 @@
       </c>
     </row>
     <row r="1399">
-      <c r="A1399" t="inlineStr"/>
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr"/>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr"/>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr">
         <is>
@@ -36977,54 +36865,74 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Fed Press Conference</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr"/>
       <c r="D1401" t="inlineStr"/>
       <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>$-0.81B</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr">
@@ -37034,32 +36942,20 @@
       </c>
     </row>
     <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
+      <c r="A1403" t="inlineStr"/>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr">
         <is>
           <t>3</t>
@@ -37067,173 +36963,149 @@
       </c>
     </row>
     <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1404" t="inlineStr"/>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1404" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr"/>
       <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>55.9</t>
-        </is>
-      </c>
+      <c r="D1405" t="inlineStr"/>
       <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="inlineStr"/>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>246.0K</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>1916K</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
       <c r="G1409" t="inlineStr">
         <is>
           <t>3</t>
@@ -37243,22 +37115,26 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>231.5K</t>
+        </is>
+      </c>
       <c r="G1410" t="inlineStr">
         <is>
           <t>3</t>
@@ -37268,22 +37144,30 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>3.784%</t>
-        </is>
-      </c>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1411" t="inlineStr">
         <is>
           <t>3</t>
@@ -37293,122 +37177,118 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr"/>
       <c r="D1412" t="inlineStr"/>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr"/>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr"/>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>$278.5B</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>$280.5B</t>
-        </is>
-      </c>
+      <c r="F1414" t="inlineStr"/>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr"/>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>$401.1B</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr"/>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37422,26 +37302,22 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>09:10 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr"/>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1417" t="inlineStr"/>
       <c r="G1417" t="inlineStr">
         <is>
           <t>3</t>
@@ -37456,13 +37332,13 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr"/>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37481,99 +37357,91 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr"/>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr"/>
       <c r="F1419" t="inlineStr"/>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1420">
-      <c r="A1420" t="inlineStr"/>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexAPR</t>
-        </is>
-      </c>
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
       <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1420" t="inlineStr"/>
       <c r="E1420" t="inlineStr"/>
       <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1420" t="inlineStr"/>
     </row>
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="inlineStr"/>
       <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="inlineStr"/>
       <c r="F1422" t="inlineStr"/>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1423" t="inlineStr"/>
       <c r="E1423" t="inlineStr"/>
       <c r="F1423" t="inlineStr"/>
       <c r="G1423" t="inlineStr">
@@ -37585,928 +37453,15 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
       <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1424" t="inlineStr"/>
       <c r="E1424" t="inlineStr"/>
       <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/02</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr"/>
-      <c r="B1440" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
